--- a/biology/Médecine/Récepteur_A2a_de_l'adénosine/Récepteur_A2a_de_l'adénosine.xlsx
+++ b/biology/Médecine/Récepteur_A2a_de_l'adénosine/Récepteur_A2a_de_l'adénosine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_A2a_de_l%27ad%C3%A9nosine</t>
+          <t>Récepteur_A2a_de_l'adénosine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récepteur A2a de l'adénosine est un récepteur couplé aux protéines G (RCPG) ayant pour ligand endogène l'adénosine. Il fait partie de la famille des récepteurs à l'adénosine avec les récepteurs A1, A2b et A3.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_A2a_de_l%27ad%C3%A9nosine</t>
+          <t>Récepteur_A2a_de_l'adénosine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le récepteur A2A, comme tout récepteur couplé aux protéines G, possède sept hélices alpha transmembranaires avec un domaine extracellulaire comprenant la partie N-terminale avec trois boucles extracellulaires et un domaine intracellulaire comprenant la partie C-terminale avec trois boucles intracellulaires[1].
-Plusieurs études cristallographiques sur le récepteur ont été réalisées avec différents ligands et ont ainsi permis d'établir les interactions et les liaisons stabilisatrices les plus importantes. Dans les années 2000, la structure co-cristallisée du récepteur A2a avec un ligand antagoniste de haute affinité, le ZM-241385 (PDB: 4EIY), a été publiée, permettant ainsi de rendre compte davantage des liaisons possibles avec ce récepteur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le récepteur A2A, comme tout récepteur couplé aux protéines G, possède sept hélices alpha transmembranaires avec un domaine extracellulaire comprenant la partie N-terminale avec trois boucles extracellulaires et un domaine intracellulaire comprenant la partie C-terminale avec trois boucles intracellulaires.
+Plusieurs études cristallographiques sur le récepteur ont été réalisées avec différents ligands et ont ainsi permis d'établir les interactions et les liaisons stabilisatrices les plus importantes. Dans les années 2000, la structure co-cristallisée du récepteur A2a avec un ligand antagoniste de haute affinité, le ZM-241385 (PDB: 4EIY), a été publiée, permettant ainsi de rendre compte davantage des liaisons possibles avec ce récepteur.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_A2a_de_l%27ad%C3%A9nosine</t>
+          <t>Récepteur_A2a_de_l'adénosine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activation de ce récepteur provoque un échange entre la guanosine diphosphate (GDP) et la guanosine triphosphate (GTP). Cette dernière se lie à la sous-unité α, qui se dissocie de l'hétérodimère βγ. De par le couplage du récepteur avec la protéine Gs activatrice, l'activité de l'adénylate cyclase (AC) est stimulée, permettant la production d'adénosine monophosphate cyclique (AMPc), qui active la protéine kinase A (PKA) et produit donc une augmentation de la phosphorylation[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activation de ce récepteur provoque un échange entre la guanosine diphosphate (GDP) et la guanosine triphosphate (GTP). Cette dernière se lie à la sous-unité α, qui se dissocie de l'hétérodimère βγ. De par le couplage du récepteur avec la protéine Gs activatrice, l'activité de l'adénylate cyclase (AC) est stimulée, permettant la production d'adénosine monophosphate cyclique (AMPc), qui active la protéine kinase A (PKA) et produit donc une augmentation de la phosphorylation.
 L'invalidation du gène codant le récepteur A2a chez les souris, les rend plus anxieuses, moins sensibles à la douleur, hypertendues.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_A2a_de_l%27ad%C3%A9nosine</t>
+          <t>Récepteur_A2a_de_l'adénosine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Rôle physiologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le récepteur A2a est majoritairement présent dans le système nerveux central (SNC), particulièrement au niveau du striatum. Il y joue un rôle important dans la régulation du glutamate et de la dopamine, faisant de lui une cible thérapeutique potentielle notamment pour les maladies neurodégénératives telles que la maladie d'Alzheimer[4],[5] ou la maladie de Parkinson[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le récepteur A2a est majoritairement présent dans le système nerveux central (SNC), particulièrement au niveau du striatum. Il y joue un rôle important dans la régulation du glutamate et de la dopamine, faisant de lui une cible thérapeutique potentielle notamment pour les maladies neurodégénératives telles que la maladie d'Alzheimer, ou la maladie de Parkinson,.
 Le récepteur A2a est également présent au niveau des organes périphériques tels que le cœur, les poumons ou encore la rate.
 </t>
         </is>
